--- a/Kinetics/Twitch + DOF hMMT Kinetics Spreadsheet.xlsx
+++ b/Kinetics/Twitch + DOF hMMT Kinetics Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katytiper/Desktop/Other/hMMT-postTracking Package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katytiper/Desktop/Other/hMMT-postTracking Package/Kinetics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B5559-F847-A24F-BA5F-FC668F61EE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57072FB2-A37D-FE49-A822-30A6162F3F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="500" windowWidth="21860" windowHeight="16100" activeTab="1" xr2:uid="{D2F4C865-56EE-9147-B623-38CCE8E8C326}"/>
+    <workbookView xWindow="5660" yWindow="500" windowWidth="21860" windowHeight="16100" xr2:uid="{D2F4C865-56EE-9147-B623-38CCE8E8C326}"/>
   </bookViews>
   <sheets>
     <sheet name="Twitch" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -1185,320 +1184,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,9 +1209,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1537,9 +1233,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,9 +1249,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1582,23 +1272,332 @@
     <xf numFmtId="1" fontId="3" fillId="12" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1742,7 +1741,7 @@
       <sheetName val="Standard"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="99">
           <cell r="F99">
@@ -1820,35 +1819,22 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="5V, all SDs "/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2153,1000 +2139,958 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E3E1D8-6E73-5542-A532-8DB3408BD5D8}">
   <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="198"/>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="121" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="121" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="122"/>
-      <c r="M1" s="123" t="s">
+      <c r="L1" s="114"/>
+      <c r="M1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="121" t="s">
+      <c r="N1" s="122"/>
+      <c r="O1" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="121" t="s">
+      <c r="P1" s="114"/>
+      <c r="Q1" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="122"/>
-      <c r="S1" s="121" t="s">
+      <c r="R1" s="114"/>
+      <c r="S1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="126" t="s">
+      <c r="T1" s="114"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="127"/>
-      <c r="X1" s="121" t="s">
+      <c r="W1" s="118"/>
+      <c r="X1" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123" t="s">
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="121" t="s">
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="128"/>
+      <c r="AC1" s="125"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="198"/>
-      <c r="B2" s="129"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="130"/>
       <c r="D2" s="131"/>
       <c r="E2" s="131"/>
       <c r="F2" s="131"/>
       <c r="G2" s="131"/>
       <c r="H2" s="132"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="140"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="126"/>
     </row>
     <row r="3" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="L3" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="146" t="s">
+      <c r="N3" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="143" t="s">
+      <c r="O3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="144" t="s">
+      <c r="P3" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="143" t="s">
+      <c r="Q3" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="144" t="s">
+      <c r="R3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="143" t="s">
+      <c r="S3" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="144" t="s">
+      <c r="T3" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="141" t="s">
+      <c r="U3" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="142" t="s">
+      <c r="V3" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="142" t="s">
+      <c r="W3" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="143" t="s">
+      <c r="X3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="Y3" s="143" t="s">
+      <c r="Y3" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="145" t="s">
+      <c r="Z3" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="146" t="s">
+      <c r="AA3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="143" t="s">
+      <c r="AB3" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="143" t="s">
+      <c r="AC3" s="99" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="153"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="153"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="153"/>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="153"/>
-      <c r="AC4" s="153"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="157">
+      <c r="B5" s="57">
         <v>1</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="160">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60">
         <f>(E5-C5)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="161">
+      <c r="J5" s="94">
         <f>AVERAGE(I5:I7)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="160" cm="1">
+      <c r="K5" s="60" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX('[1]Twitch + DOF'!$F$99:$F$113,COUNTA($K$5:K5))</f>
         <v>5</v>
       </c>
-      <c r="L5" s="161">
+      <c r="L5" s="94">
         <f ca="1">AVERAGE(K5:K7)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="M5" s="162" t="e">
+      <c r="M5" s="61" t="e">
         <f t="shared" ref="M5:M7" ca="1" si="0">K5/I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="161" t="e">
+      <c r="N5" s="94" t="e">
         <f ca="1">AVERAGE(M5:M7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="163">
+      <c r="O5" s="62">
         <f t="shared" ref="O5:O7" si="1">(F5-E5)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="161">
+      <c r="P5" s="94">
         <f>AVERAGE(O5:O7)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="163">
+      <c r="Q5" s="62">
         <f t="shared" ref="Q5:Q7" si="2">(G5-F5)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="161">
+      <c r="R5" s="94">
         <f>AVERAGE(Q5:Q7)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="163">
+      <c r="S5" s="62">
         <f t="shared" ref="S5:S7" si="3">(H5-F5)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="161">
+      <c r="T5" s="94">
         <f>AVERAGE(S5:S7)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="164">
+      <c r="U5" s="63">
         <v>1</v>
       </c>
-      <c r="V5" s="165">
+      <c r="V5" s="64">
         <v>5</v>
       </c>
-      <c r="W5" s="166">
+      <c r="W5" s="65">
         <v>2</v>
       </c>
-      <c r="X5" s="163">
+      <c r="X5" s="62">
         <f>V5-W5</f>
         <v>3</v>
       </c>
-      <c r="Y5" s="161">
+      <c r="Y5" s="94">
         <f>AVERAGE(X5:X7)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="Z5" s="162" t="e">
+      <c r="Z5" s="61" t="e">
         <f t="shared" ref="Z5:Z7" si="4">X5/S5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA5" s="161" t="e">
+      <c r="AA5" s="94" t="e">
         <f>AVERAGE(Z5:Z7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB5" s="163">
+      <c r="AB5" s="62">
         <f t="shared" ref="AB5:AB7" si="5">(G5-D5)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="161">
+      <c r="AC5" s="94">
         <f>AVERAGE(AB5:AB7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="67">
         <v>1</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="170">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="69">
         <f>(E6-C6)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="171"/>
-      <c r="K6" s="170" cm="1">
+      <c r="J6" s="95"/>
+      <c r="K6" s="69" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX('[1]Twitch + DOF'!$F$99:$F$113,COUNTA($K$5:K6))</f>
         <v>5</v>
       </c>
-      <c r="L6" s="171"/>
-      <c r="M6" s="162" t="e">
+      <c r="L6" s="95"/>
+      <c r="M6" s="61" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="171"/>
-      <c r="O6" s="163">
+      <c r="N6" s="95"/>
+      <c r="O6" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="163">
+      <c r="P6" s="95"/>
+      <c r="Q6" s="62">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R6" s="171"/>
-      <c r="S6" s="163">
+      <c r="R6" s="95"/>
+      <c r="S6" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T6" s="171"/>
-      <c r="U6" s="164">
+      <c r="T6" s="95"/>
+      <c r="U6" s="63">
         <v>1</v>
       </c>
-      <c r="V6" s="172">
+      <c r="V6" s="70">
         <v>5</v>
       </c>
-      <c r="W6" s="173">
+      <c r="W6" s="71">
         <v>1</v>
       </c>
-      <c r="X6" s="163">
+      <c r="X6" s="62">
         <f t="shared" ref="X6" si="6">V6-W6</f>
         <v>4</v>
       </c>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="162" t="e">
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="61" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="163">
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="62">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="171"/>
+      <c r="AC6" s="95"/>
     </row>
     <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="175">
+      <c r="B7" s="73">
         <v>1</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="178">
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76">
         <f>(E7-C7)*(1/30)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="178" cm="1">
+      <c r="J7" s="96"/>
+      <c r="K7" s="76" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX('[1]Twitch + DOF'!$F$99:$F$113,COUNTA($K$5:K7))</f>
         <v>13</v>
       </c>
-      <c r="L7" s="179"/>
-      <c r="M7" s="180" t="e">
+      <c r="L7" s="96"/>
+      <c r="M7" s="77" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="179"/>
-      <c r="O7" s="181">
+      <c r="N7" s="96"/>
+      <c r="O7" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="181">
+      <c r="P7" s="96"/>
+      <c r="Q7" s="78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R7" s="179"/>
-      <c r="S7" s="181">
+      <c r="R7" s="96"/>
+      <c r="S7" s="78">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" s="179"/>
-      <c r="U7" s="177">
+      <c r="T7" s="96"/>
+      <c r="U7" s="75">
         <v>1</v>
       </c>
-      <c r="V7" s="182">
+      <c r="V7" s="79">
         <v>13</v>
       </c>
-      <c r="W7" s="183">
+      <c r="W7" s="80">
         <v>3</v>
       </c>
-      <c r="X7" s="181">
+      <c r="X7" s="78">
         <f>V7-W7</f>
         <v>10</v>
       </c>
-      <c r="Y7" s="179"/>
-      <c r="Z7" s="180" t="e">
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="77" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA7" s="179"/>
-      <c r="AB7" s="181">
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="78">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="179"/>
+      <c r="AC7" s="96"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="116"/>
-      <c r="S8" s="116"/>
-      <c r="T8" s="116"/>
-      <c r="U8" s="116"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="116"/>
-      <c r="AB8" s="116"/>
-      <c r="AC8" s="116"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="115"/>
-      <c r="C10" s="187" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="188" t="s">
+      <c r="E10" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="188" t="s">
+      <c r="F10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="188" t="s">
+      <c r="G10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="116"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="116"/>
-      <c r="P10" s="116"/>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="116"/>
-      <c r="AB10" s="116"/>
-      <c r="AC10" s="116"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="191">
+      <c r="B11" s="52"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88">
         <f>C11+ROUNDUP((D11-C11)/2,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="192">
+      <c r="G11" s="89">
         <f>D11-ROUNDUP((D11-E11)/2,0)</f>
         <v>0</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="116"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="116"/>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="116"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="116"/>
-      <c r="AA13" s="116"/>
-      <c r="AB13" s="116"/>
-      <c r="AC13" s="116"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
     </row>
     <row r="14" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="199"/>
-      <c r="E14" s="199"/>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="186"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
     </row>
     <row r="15" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="186"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="116"/>
-      <c r="P15" s="116"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="116"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="116"/>
-      <c r="AB15" s="116"/>
-      <c r="AC15" s="116"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="116"/>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
-      <c r="AA17" s="116"/>
-      <c r="AB17" s="116"/>
-      <c r="AC17" s="116"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="186"/>
-      <c r="L18" s="186"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="186"/>
-      <c r="L19" s="186"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="116"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="186"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="186"/>
-      <c r="L21" s="186"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="186"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="116"/>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="116"/>
-      <c r="Z22" s="116"/>
-      <c r="AA22" s="116"/>
-      <c r="AB22" s="116"/>
-      <c r="AC22" s="116"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="186"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C13:I21"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="V1:W2"/>
     <mergeCell ref="X1:Y2"/>
     <mergeCell ref="Z1:AA2"/>
     <mergeCell ref="AB1:AC2"/>
@@ -3155,6 +3099,48 @@
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:N2"/>
     <mergeCell ref="O1:P2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="C13:I21"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="N5:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3165,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE916FA-00BB-5348-9390-718A651B658D}">
   <dimension ref="A1:AL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -3178,265 +3164,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="194"/>
-      <c r="B1" s="194"/>
-      <c r="C1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="93" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="93" t="s">
+      <c r="J1" s="134"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="103" t="s">
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="93" t="s">
+      <c r="P1" s="140"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="94"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="93" t="s">
+      <c r="S1" s="134"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="94"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="93" t="s">
+      <c r="V1" s="134"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="95"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="135"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="99" t="s">
+      <c r="AB1" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="93" t="s">
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="94"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="103" t="s">
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="93" t="s">
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="94"/>
-      <c r="AL1" s="95"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="135"/>
     </row>
     <row r="2" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="98"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="138"/>
       <c r="AA2" s="2"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="97"/>
-      <c r="AL2" s="98"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="138"/>
     </row>
     <row r="3" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="77" t="s">
+      <c r="P3" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="81" t="s">
+      <c r="R3" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="87" t="s">
+      <c r="T3" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="83" t="s">
+      <c r="V3" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="87" t="s">
+      <c r="W3" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="81" t="s">
+      <c r="X3" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="83" t="s">
+      <c r="Y3" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="87" t="s">
+      <c r="Z3" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="72" t="s">
+      <c r="AA3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="72" t="s">
+      <c r="AB3" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="72" t="s">
+      <c r="AC3" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="81" t="s">
+      <c r="AD3" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="AE3" s="81" t="s">
+      <c r="AE3" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" s="83" t="s">
+      <c r="AF3" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" s="77" t="s">
+      <c r="AH3" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="AI3" s="79" t="s">
+      <c r="AI3" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="AJ3" s="81" t="s">
+      <c r="AJ3" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="AK3" s="81" t="s">
+      <c r="AK3" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="AL3" s="83" t="s">
+      <c r="AL3" s="161" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="84"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="164"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="162"/>
+      <c r="W4" s="167"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="164"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="160"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="174"/>
+      <c r="AH4" s="171"/>
+      <c r="AI4" s="173"/>
+      <c r="AJ4" s="175"/>
+      <c r="AK4" s="175"/>
+      <c r="AL4" s="162"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="176" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3">
@@ -3449,23 +3435,23 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7">
-        <f>(E5-C5)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="65">
+        <f t="shared" ref="I5:I13" si="0">(E5-C5)*(1/30)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="179">
         <f>AVERAGE(I5:I7)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="192">
         <f>AVERAGE(J5:J13)</f>
         <v>0</v>
       </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="57" t="e">
+      <c r="M5" s="189" t="e">
         <f>AVERAGE(L5:L7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="66" t="e">
+      <c r="N5" s="192" t="e">
         <f>AVERAGE(M5:M13)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3473,47 +3459,47 @@
         <f>L5/I5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P5" s="57" t="e">
+      <c r="P5" s="189" t="e">
         <f>AVERAGE(O5:O7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="66" t="e">
+      <c r="Q5" s="192" t="e">
         <f>AVERAGE(P5:P13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="8">
-        <f t="shared" ref="R5:R13" si="0">(F5-E5)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="65">
+        <f t="shared" ref="R5:R13" si="1">(F5-E5)*(1/30)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="179">
         <f>AVERAGE(R5:R7)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="66">
+      <c r="T5" s="192">
         <f>AVERAGE(S5:S13)</f>
         <v>0</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" ref="U5:U13" si="1">(G5-F5)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="65">
+        <f t="shared" ref="U5:U13" si="2">(G5-F5)*(1/30)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="179">
         <f>AVERAGE(U5:U7)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="66">
+      <c r="W5" s="192">
         <f>AVERAGE(V5:V13)</f>
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" ref="X5:X13" si="2">(H5-F5)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="65">
+        <f t="shared" ref="X5:X13" si="3">(H5-F5)*(1/30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="179">
         <f>AVERAGE(X5:X7)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="51">
+      <c r="Z5" s="181">
         <f>AVERAGE(Y5:Y13)</f>
         <v>0</v>
       </c>
@@ -3526,11 +3512,11 @@
         <f>AB5-AC5</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="65">
+      <c r="AE5" s="179">
         <f>AVERAGE(AD5:AD7)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="51">
+      <c r="AF5" s="181">
         <f>AVERAGE(AE5:AE13)</f>
         <v>0</v>
       </c>
@@ -3538,29 +3524,29 @@
         <f>AD5/X5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH5" s="57" t="e">
+      <c r="AH5" s="189" t="e">
         <f>AVERAGE(AG5:AG7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI5" s="66" t="e">
+      <c r="AI5" s="192" t="e">
         <f>AVERAGE(AH5:AH13)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AJ5" s="8">
-        <f>(G5-D5)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="51">
+        <f t="shared" ref="AJ5:AJ13" si="4">(G5-D5)*(1/30)</f>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="181">
         <f>AVERAGE(AJ5:AJ7)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="51">
+      <c r="AL5" s="181">
         <f>AVERAGE(AK5:AK13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -3571,64 +3557,64 @@
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16">
-        <f>(E6-C6)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="195"/>
-      <c r="K6" s="67"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="180"/>
+      <c r="K6" s="193"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="67"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="193"/>
       <c r="O6" s="18" t="e">
-        <f t="shared" ref="O6:O12" si="3">L6/I6</f>
+        <f t="shared" ref="O6:O12" si="5">L6/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="67"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="193"/>
       <c r="R6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="195"/>
-      <c r="T6" s="67"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="180"/>
+      <c r="T6" s="193"/>
       <c r="U6" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="195"/>
-      <c r="W6" s="67"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="180"/>
+      <c r="W6" s="193"/>
       <c r="X6" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="195"/>
-      <c r="Z6" s="52"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="182"/>
       <c r="AA6" s="19">
         <v>4</v>
       </c>
       <c r="AB6" s="20"/>
       <c r="AC6" s="15"/>
       <c r="AD6" s="17">
-        <f t="shared" ref="AD6:AD13" si="4">AB6-AC6</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="195"/>
-      <c r="AF6" s="52"/>
+        <f t="shared" ref="AD6:AD13" si="6">AB6-AC6</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="180"/>
+      <c r="AF6" s="182"/>
       <c r="AG6" s="18" t="e">
         <f>AD6/X6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="67"/>
+      <c r="AH6" s="190"/>
+      <c r="AI6" s="193"/>
       <c r="AJ6" s="17">
-        <f>(G6-D6)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="182"/>
+      <c r="AL6" s="182"/>
     </row>
     <row r="7" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="178"/>
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -3639,64 +3625,64 @@
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
       <c r="I7" s="25">
-        <f>(E7-C7)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="195"/>
-      <c r="K7" s="67"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="180"/>
+      <c r="K7" s="193"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="67"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="193"/>
       <c r="O7" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="180"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="180"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="26">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="195"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="195"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="195"/>
-      <c r="Z7" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="182"/>
       <c r="AA7" s="28">
         <v>5</v>
       </c>
       <c r="AB7" s="29"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="27" t="e">
+        <f t="shared" ref="AG7:AG13" si="7">AD7/X7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH7" s="191"/>
+      <c r="AI7" s="193"/>
+      <c r="AJ7" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="195"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="27" t="e">
-        <f t="shared" ref="AG7:AG13" si="5">AD7/X7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="26">
-        <f>(G7-D7)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="52"/>
+      <c r="AK7" s="183"/>
+      <c r="AL7" s="182"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="184" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3">
@@ -3709,91 +3695,91 @@
       <c r="G8" s="31"/>
       <c r="H8" s="32"/>
       <c r="I8" s="8">
-        <f>(E8-C8)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="63">
-        <f t="shared" ref="J8" si="6">AVERAGE(I8:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="52"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="187">
+        <f t="shared" ref="J8" si="8">AVERAGE(I8:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="182"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="51" t="e">
-        <f t="shared" ref="M8" si="7">AVERAGE(L8:L10)</f>
+      <c r="M8" s="181" t="e">
+        <f t="shared" ref="M8" si="9">AVERAGE(L8:L10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="67"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="189" t="e">
+        <f t="shared" ref="P8" si="10">AVERAGE(O8:O10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="187">
+        <f t="shared" ref="S8" si="11">AVERAGE(R8:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="193"/>
+      <c r="U8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="179">
+        <f t="shared" ref="V8" si="12">AVERAGE(U8:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="193"/>
+      <c r="X8" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="57" t="e">
-        <f t="shared" ref="P8" si="8">AVERAGE(O8:O10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="63">
-        <f t="shared" ref="S8" si="9">AVERAGE(R8:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="67"/>
-      <c r="U8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="65">
-        <f t="shared" ref="V8" si="10">AVERAGE(U8:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="65">
-        <f t="shared" ref="Y8" si="11">AVERAGE(X8:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="179">
+        <f t="shared" ref="Y8" si="13">AVERAGE(X8:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="182"/>
       <c r="AA8" s="10">
         <v>3</v>
       </c>
       <c r="AB8" s="33"/>
       <c r="AC8" s="32"/>
       <c r="AD8" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="179">
+        <f t="shared" ref="AE8" si="14">AVERAGE(AD8:AD10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="182"/>
+      <c r="AG8" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH8" s="181" t="e">
+        <f t="shared" ref="AH8" si="15">AVERAGE(AG8:AG10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI8" s="193"/>
+      <c r="AJ8" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="65">
-        <f t="shared" ref="AE8" si="12">AVERAGE(AD8:AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH8" s="51" t="e">
-        <f t="shared" ref="AH8" si="13">AVERAGE(AG8:AG10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="8">
-        <f>(G8-D8)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="51">
-        <f t="shared" ref="AK8" si="14">AVERAGE(AJ8:AJ10)</f>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="52"/>
+      <c r="AK8" s="181">
+        <f t="shared" ref="AK8" si="16">AVERAGE(AJ8:AJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="182"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="12">
         <v>4</v>
       </c>
@@ -3804,64 +3790,64 @@
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="17">
-        <f>(E9-C9)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="52"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="188"/>
+      <c r="K9" s="182"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="67"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="193"/>
       <c r="O9" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="188"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="180"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="64"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="195"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="195"/>
-      <c r="Z9" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="180"/>
+      <c r="Z9" s="182"/>
       <c r="AA9" s="19">
         <v>4</v>
       </c>
       <c r="AB9" s="20"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="180"/>
+      <c r="AF9" s="182"/>
+      <c r="AG9" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH9" s="182"/>
+      <c r="AI9" s="193"/>
+      <c r="AJ9" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="195"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="17">
-        <f>(G9-D9)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
+      <c r="AK9" s="182"/>
+      <c r="AL9" s="182"/>
     </row>
     <row r="10" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="21">
         <v>5</v>
       </c>
@@ -3872,64 +3858,64 @@
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="I10" s="26">
-        <f>(E10-C10)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="52"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="188"/>
+      <c r="K10" s="182"/>
       <c r="L10" s="26"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="67"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="193"/>
       <c r="O10" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="188"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="180"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="26">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="64"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="195"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="180"/>
+      <c r="Z10" s="182"/>
       <c r="AA10" s="28">
         <v>5</v>
       </c>
       <c r="AB10" s="37"/>
       <c r="AC10" s="36"/>
       <c r="AD10" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="180"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH10" s="183"/>
+      <c r="AI10" s="193"/>
+      <c r="AJ10" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="195"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="27" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="26">
-        <f>(G10-D10)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="52"/>
+      <c r="AK10" s="183"/>
+      <c r="AL10" s="182"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="195" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="3">
@@ -3942,91 +3928,91 @@
       <c r="G11" s="39"/>
       <c r="H11" s="40"/>
       <c r="I11" s="8">
-        <f>(E11-C11)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="63">
-        <f t="shared" ref="J11" si="15">AVERAGE(I11:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="52"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="187">
+        <f t="shared" ref="J11" si="17">AVERAGE(I11:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="182"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="51" t="e">
-        <f t="shared" ref="M11" si="16">AVERAGE(L11:L13)</f>
+      <c r="M11" s="181" t="e">
+        <f t="shared" ref="M11" si="18">AVERAGE(L11:L13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="67"/>
+      <c r="N11" s="193"/>
       <c r="O11" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="189" t="e">
+        <f t="shared" ref="P11" si="19">AVERAGE(O11:O13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="187">
+        <f t="shared" ref="S11" si="20">AVERAGE(R11:R13)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="193"/>
+      <c r="U11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="179">
+        <f t="shared" ref="V11" si="21">AVERAGE(U11:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="193"/>
+      <c r="X11" s="8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="57" t="e">
-        <f t="shared" ref="P11" si="17">AVERAGE(O11:O13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="63">
-        <f t="shared" ref="S11" si="18">AVERAGE(R11:R13)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="67"/>
-      <c r="U11" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="65">
-        <f t="shared" ref="V11" si="19">AVERAGE(U11:U13)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="67"/>
-      <c r="X11" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="65">
-        <f t="shared" ref="Y11" si="20">AVERAGE(X11:X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="179">
+        <f t="shared" ref="Y11" si="22">AVERAGE(X11:X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="182"/>
       <c r="AA11" s="10">
         <v>3</v>
       </c>
       <c r="AB11" s="41"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="179">
+        <f t="shared" ref="AE11" si="23">AVERAGE(AD11:AD13)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH11" s="181" t="e">
+        <f t="shared" ref="AH11" si="24">AVERAGE(AG11:AG13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI11" s="193"/>
+      <c r="AJ11" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="65">
-        <f t="shared" ref="AE11" si="21">AVERAGE(AD11:AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH11" s="51" t="e">
-        <f t="shared" ref="AH11" si="22">AVERAGE(AG11:AG13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="8">
-        <f>(G11-D11)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="51">
-        <f t="shared" ref="AK11" si="23">AVERAGE(AJ11:AJ13)</f>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="52"/>
+      <c r="AK11" s="181">
+        <f t="shared" ref="AK11" si="25">AVERAGE(AJ11:AJ13)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="182"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="12">
         <v>4</v>
       </c>
@@ -4037,64 +4023,64 @@
       <c r="G12" s="43"/>
       <c r="H12" s="44"/>
       <c r="I12" s="17">
-        <f>(E12-C12)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="52"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="188"/>
+      <c r="K12" s="182"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="67"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="193"/>
       <c r="O12" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="188"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="180"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="17">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="64"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="195"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="195"/>
-      <c r="Z12" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="180"/>
+      <c r="Z12" s="182"/>
       <c r="AA12" s="19">
         <v>4</v>
       </c>
       <c r="AB12" s="45"/>
       <c r="AC12" s="44"/>
       <c r="AD12" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="180"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH12" s="182"/>
+      <c r="AI12" s="193"/>
+      <c r="AJ12" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="195"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="17">
-        <f>(G12-D12)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
+      <c r="AK12" s="182"/>
+      <c r="AL12" s="182"/>
     </row>
     <row r="13" spans="1:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="21">
         <v>5</v>
       </c>
@@ -4105,61 +4091,61 @@
       <c r="G13" s="35"/>
       <c r="H13" s="36"/>
       <c r="I13" s="26">
-        <f>(E13-C13)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="196"/>
-      <c r="K13" s="53"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="198"/>
+      <c r="K13" s="183"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="68"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="194"/>
       <c r="O13" s="27" t="e">
         <f>L13/I13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="68"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="194"/>
       <c r="R13" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="196"/>
-      <c r="T13" s="68"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="198"/>
+      <c r="T13" s="194"/>
       <c r="U13" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="197"/>
-      <c r="W13" s="68"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="199"/>
+      <c r="W13" s="194"/>
       <c r="X13" s="26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="53"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="199"/>
+      <c r="Z13" s="183"/>
       <c r="AA13" s="28">
         <v>5</v>
       </c>
       <c r="AB13" s="37"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="183"/>
+      <c r="AG13" s="27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH13" s="183"/>
+      <c r="AI13" s="194"/>
+      <c r="AJ13" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="27" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="26">
-        <f>(G13-D13)*(1/30)</f>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
+      <c r="AK13" s="183"/>
+      <c r="AL13" s="183"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="P15" s="46"/>
@@ -4203,101 +4189,101 @@
       <c r="P18" s="46"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
       <c r="O19" s="46"/>
       <c r="P19" s="46"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
       <c r="O20" s="46"/>
       <c r="P20" s="46"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="199"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="199"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
       <c r="O22" s="46"/>
       <c r="P22" s="46"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="199"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="199"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
       <c r="O24" s="46"/>
       <c r="P24" s="46"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C25" s="199"/>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
       <c r="O25" s="46"/>
       <c r="P25" s="46"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C26" s="199"/>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
       <c r="O26" s="46"/>
       <c r="P26" s="46"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
       <c r="O27" s="46"/>
       <c r="P27" s="46"/>
     </row>
@@ -4310,14 +4296,71 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AD1:AF2"/>
-    <mergeCell ref="AG1:AI2"/>
-    <mergeCell ref="AJ1:AL2"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:N2"/>
-    <mergeCell ref="O1:Q2"/>
-    <mergeCell ref="R1:T2"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AK8:AK10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF5:AF13"/>
+    <mergeCell ref="AH5:AH7"/>
+    <mergeCell ref="AI5:AI13"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="K5:K13"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N13"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q13"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="C19:I27"/>
+    <mergeCell ref="AL5:AL13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T5:T13"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W13"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Z5:Z13"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="U1:W2"/>
@@ -4334,71 +4377,14 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="C19:I27"/>
-    <mergeCell ref="AL5:AL13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T5:T13"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W13"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Z5:Z13"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="K5:K13"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N13"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q13"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AK8:AK10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF5:AF13"/>
-    <mergeCell ref="AH5:AH7"/>
-    <mergeCell ref="AI5:AI13"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AD1:AF2"/>
+    <mergeCell ref="AG1:AI2"/>
+    <mergeCell ref="AJ1:AL2"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:N2"/>
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="R1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
